--- a/excel-files/Modeling_Demand_and_Price.xlsx
+++ b/excel-files/Modeling_Demand_and_Price.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\anson\Financial-Modelling\business-analytics-excel-coursera\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993FB0C0-D2BF-43A2-9924-ECAE37FCDF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452252CF-C4DC-4ACE-9644-29FCDB1DA723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{5B615D70-7999-443A-A2FD-E79A30248FF5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5B615D70-7999-443A-A2FD-E79A30248FF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,10 +134,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.0%"/>
-    <numFmt numFmtId="170" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="174" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -252,59 +252,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="65">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -342,536 +331,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1029,7 +488,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.4626033323789235E-2"/>
+          <c:y val="0.17018660648897341"/>
+          <c:w val="0.88728437123216064"/>
+          <c:h val="0.62606984673403421"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -3353,16 +2822,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>168441</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>541664</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>23326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>781295</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>66696</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>986353</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3385,8 +2854,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7618112" y="0"/>
-          <a:ext cx="3477578" cy="792837"/>
+          <a:off x="7057542" y="23326"/>
+          <a:ext cx="7411546" cy="1702837"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3397,16 +2866,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>167276</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>128818</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>198378</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12184</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>966824</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>83845</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180332</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>5654</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3429,8 +2898,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7616947" y="675665"/>
-          <a:ext cx="3662125" cy="1030792"/>
+          <a:off x="7320745" y="1683919"/>
+          <a:ext cx="6342322" cy="1846162"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3441,16 +2910,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>295364</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1651</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>621936</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>24978</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>600164</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>265818</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180209</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3478,14 +2947,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>318247</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:colOff>544787</xdr:colOff>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>13447</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:colOff>239987</xdr:colOff>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>98612</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3813,8 +3282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFAB98E-D1E9-417D-8CDF-CDA10282B0E5}">
   <dimension ref="A1:N155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K68" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="63" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3976,24 +3445,24 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="6" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="1">
         <v>211.31</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -4013,7 +3482,7 @@
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="1">
         <v>-0.35460000000000003</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -4050,7 +3519,7 @@
       <c r="D20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -4067,30 +3536,30 @@
       <c r="A21" s="2">
         <v>450</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="5">
         <f>$B$17*A21+$B$16</f>
         <v>51.739999999999981</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="5">
         <f>$D$16*A21^$D$17</f>
         <v>50.861286169919921</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="5">
         <f>$F$16*EXP($F$17*A21)</f>
         <v>49.169792250355329</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="7">
         <v>45</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="8">
         <f>ABS(B21-E21)/E21</f>
         <v>0.14977777777777734</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="8">
         <f>ABS(C21-E21)/E21</f>
         <v>0.13025080377599826</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="8">
         <f>ABS(D21-E21)/E21</f>
         <v>9.2662050007896193E-2</v>
       </c>
@@ -4099,30 +3568,30 @@
       <c r="A22" s="2">
         <v>300</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="5">
         <f t="shared" ref="B22:B32" si="0">$B$17*A22+$B$16</f>
         <v>104.92999999999999</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="5">
         <f t="shared" ref="C22:C32" si="1">$D$16*A22^$D$17</f>
         <v>110.2476803704582</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="5">
         <f t="shared" ref="D22:D32" si="2">$F$16*EXP($F$17*A22)</f>
         <v>104.09245101084399</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="7">
         <v>103</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="8">
         <f t="shared" ref="F22:F32" si="3">ABS(B22-E22)/E22</f>
         <v>1.8737864077669832E-2</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="8">
         <f t="shared" ref="G22:G32" si="4">ABS(C22-E22)/E22</f>
         <v>7.0365828839399985E-2</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="8">
         <f t="shared" ref="H22:H32" si="5">ABS(D22-E22)/E22</f>
         <v>1.0606320493630948E-2</v>
       </c>
@@ -4131,30 +3600,30 @@
       <c r="A23" s="2">
         <v>440</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="5">
         <f t="shared" si="0"/>
         <v>55.286000000000001</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="5">
         <f t="shared" si="1"/>
         <v>53.089557787712614</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="5">
         <f t="shared" si="2"/>
         <v>51.69078140761237</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="7">
         <v>49</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="8">
         <f t="shared" si="3"/>
         <v>0.12828571428571431</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="8">
         <f t="shared" si="4"/>
         <v>8.3460363014543154E-2</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="8">
         <f t="shared" si="5"/>
         <v>5.4913906277803466E-2</v>
       </c>
@@ -4163,30 +3632,30 @@
       <c r="A24" s="2">
         <v>360</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="5">
         <f t="shared" si="0"/>
         <v>83.653999999999996</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="5">
         <f t="shared" si="1"/>
         <v>77.85592038588905</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="5">
         <f t="shared" si="2"/>
         <v>77.113584344252331</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="7">
         <v>86</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="8">
         <f t="shared" si="3"/>
         <v>2.7279069767441901E-2</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="8">
         <f t="shared" si="4"/>
         <v>9.4698600164080812E-2</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="8">
         <f t="shared" si="5"/>
         <v>0.10333041460171709</v>
       </c>
@@ -4195,30 +3664,30 @@
       <c r="A25" s="2">
         <v>290</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="5">
         <f t="shared" si="0"/>
         <v>108.476</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="5">
         <f t="shared" si="1"/>
         <v>117.61465381582187</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="5">
         <f t="shared" si="2"/>
         <v>109.42938509863754</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="7">
         <v>125</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="8">
         <f t="shared" si="3"/>
         <v>0.132192</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="8">
         <f t="shared" si="4"/>
         <v>5.9082769473425063E-2</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="8">
         <f t="shared" si="5"/>
         <v>0.12456491921089968</v>
       </c>
@@ -4227,30 +3696,30 @@
       <c r="A26" s="2">
         <v>450</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="5">
         <f t="shared" si="0"/>
         <v>51.739999999999981</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="5">
         <f t="shared" si="1"/>
         <v>50.861286169919921</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="5">
         <f t="shared" si="2"/>
         <v>49.169792250355329</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="7">
         <v>52</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="8">
         <f t="shared" si="3"/>
         <v>5.0000000000003713E-3</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="8">
         <f t="shared" si="4"/>
         <v>2.1898342886155355E-2</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="8">
         <f t="shared" si="5"/>
         <v>5.4427072108551369E-2</v>
       </c>
@@ -4259,30 +3728,30 @@
       <c r="A27" s="2">
         <v>340</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="5">
         <f t="shared" si="0"/>
         <v>90.745999999999995</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="5">
         <f t="shared" si="1"/>
         <v>86.827049006961417</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="5">
         <f t="shared" si="2"/>
         <v>85.223690805841244</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="7">
         <v>87</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="8">
         <f t="shared" si="3"/>
         <v>4.3057471264367757E-2</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="8">
         <f t="shared" si="4"/>
         <v>1.9879424487193459E-3</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="8">
         <f t="shared" si="5"/>
         <v>2.0417347059296046E-2</v>
       </c>
@@ -4291,30 +3760,30 @@
       <c r="A28" s="2">
         <v>370</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="5">
         <f t="shared" si="0"/>
         <v>80.108000000000004</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="5">
         <f t="shared" si="1"/>
         <v>73.890384263545585</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="5">
         <f t="shared" si="2"/>
         <v>73.352710456970414</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="7">
         <v>68</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="8">
         <f t="shared" si="3"/>
         <v>0.17805882352941182</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="8">
         <f t="shared" si="4"/>
         <v>8.6623297993317416E-2</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="8">
         <f t="shared" si="5"/>
         <v>7.8716330249564911E-2</v>
       </c>
@@ -4323,30 +3792,30 @@
       <c r="A29" s="2">
         <v>500</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="5">
         <f t="shared" si="0"/>
         <v>34.009999999999991</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="5">
         <f t="shared" si="1"/>
         <v>41.59891911995917</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="5">
         <f t="shared" si="2"/>
         <v>38.293472708035026</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="7">
         <v>45</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="8">
         <f t="shared" si="3"/>
         <v>0.24422222222222242</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="8">
         <f t="shared" si="4"/>
         <v>7.5579575112018446E-2</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="8">
         <f t="shared" si="5"/>
         <v>0.14903393982144386</v>
       </c>
@@ -4355,30 +3824,30 @@
       <c r="A30" s="2">
         <v>490</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="5">
         <f t="shared" si="0"/>
         <v>37.555999999999983</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="5">
         <f t="shared" si="1"/>
         <v>43.233728796663705</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="5">
         <f t="shared" si="2"/>
         <v>40.256821037821332</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="7">
         <v>44</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="8">
         <f t="shared" si="3"/>
         <v>0.14645454545454584</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="8">
         <f t="shared" si="4"/>
         <v>1.7415254621279432E-2</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="8">
         <f t="shared" si="5"/>
         <v>8.5072249140424272E-2</v>
       </c>
@@ -4387,30 +3856,30 @@
       <c r="A31" s="2">
         <v>430</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="5">
         <f t="shared" si="0"/>
         <v>58.831999999999994</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="5">
         <f t="shared" si="1"/>
         <v>55.470106712335337</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="5">
         <f t="shared" si="2"/>
         <v>54.341024442914069</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="7">
         <v>58</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="8">
         <f t="shared" si="3"/>
         <v>1.4344827586206787E-2</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="8">
         <f t="shared" si="4"/>
         <v>4.3618849787321778E-2</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="8">
         <f t="shared" si="5"/>
         <v>6.3085785466998806E-2</v>
       </c>
@@ -4419,30 +3888,30 @@
       <c r="A32" s="2">
         <v>390</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="5">
         <f t="shared" si="0"/>
         <v>73.015999999999991</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="5">
         <f t="shared" si="1"/>
         <v>66.829089531318985</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="5">
         <f t="shared" si="2"/>
         <v>66.372277135824447</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="7">
         <v>68</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="8">
         <f t="shared" si="3"/>
         <v>7.3764705882352816E-2</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="8">
         <f t="shared" si="4"/>
         <v>1.7219271598250221E-2</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="8">
         <f t="shared" si="5"/>
         <v>2.393710094375813E-2</v>
       </c>
@@ -4451,15 +3920,15 @@
       <c r="E33" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="9">
         <f>AVERAGE(F21:F21:F32)</f>
         <v>9.6764585153975916E-2</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33" s="10">
         <f>AVERAGE(G21:G32)</f>
         <v>5.8516741642875771E-2</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="9">
         <f>AVERAGE(H21:H32)</f>
         <v>7.17306196151654E-2</v>
       </c>
@@ -4473,16 +3942,16 @@
       <c r="A36" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="12">
         <v>250</v>
       </c>
       <c r="C36" t="s">
         <v>20</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4490,14 +3959,14 @@
       <c r="A37" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="12">
         <v>400</v>
       </c>
       <c r="C37" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="15"/>
-      <c r="H37" s="19">
+      <c r="G37" s="20"/>
+      <c r="H37" s="21">
         <f>B43</f>
         <v>955163.26238462282</v>
       </c>
@@ -4506,7 +3975,7 @@
       <c r="A38" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="4">
         <f>D16*B37^D17</f>
         <v>63.677550825641511</v>
       </c>
@@ -4517,11 +3986,11 @@
         <f ca="1">_xlfn.FORMULATEXT(B38)</f>
         <v>=D16*B37^D17</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G38" s="20">
         <v>260</v>
       </c>
-      <c r="H38" s="20">
-        <f t="dataTable" ref="H38:H92" dt2D="0" dtr="0" r1="B37"/>
+      <c r="H38" s="22">
+        <f t="dataTable" ref="H38:H92" dt2D="0" dtr="0" r1="B37" ca="1"/>
         <v>144859.72842847556</v>
       </c>
     </row>
@@ -4529,7 +3998,7 @@
       <c r="A39" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="4">
         <f>B38*100</f>
         <v>6367.7550825641511</v>
       </c>
@@ -4537,18 +4006,18 @@
         <f ca="1">_xlfn.FORMULATEXT(B39)</f>
         <v>=B38*100</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G39" s="20">
         <v>270</v>
       </c>
-      <c r="H39" s="20">
+      <c r="H39" s="22">
         <v>269590.60184817808</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G40" s="15">
+      <c r="G40" s="20">
         <v>280</v>
       </c>
-      <c r="H40" s="20">
+      <c r="H40" s="22">
         <v>377277.18719872413</v>
       </c>
     </row>
@@ -4556,7 +4025,7 @@
       <c r="A41" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="15">
+      <c r="B41" s="11">
         <f>B39*B36</f>
         <v>1591938.7706410377</v>
       </c>
@@ -4564,10 +4033,10 @@
         <f ca="1">_xlfn.FORMULATEXT(B41)</f>
         <v>=B39*B36</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G41" s="20">
         <v>290</v>
       </c>
-      <c r="H41" s="20">
+      <c r="H41" s="22">
         <v>470458.61526328744</v>
       </c>
     </row>
@@ -4575,7 +4044,7 @@
       <c r="A42" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="15">
+      <c r="B42" s="11">
         <f>B39*B37</f>
         <v>2547102.0330256606</v>
       </c>
@@ -4583,18 +4052,18 @@
         <f ca="1">_xlfn.FORMULATEXT(B42)</f>
         <v>=B39*B37</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G42" s="20">
         <v>300</v>
       </c>
-      <c r="H42" s="20">
+      <c r="H42" s="22">
         <v>551238.40185229108</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="18">
+      <c r="B43" s="14">
         <f>B42-B41</f>
         <v>955163.26238462282</v>
       </c>
@@ -4602,274 +4071,274 @@
         <f ca="1">_xlfn.FORMULATEXT(B43)</f>
         <v>=B42-B41</v>
       </c>
-      <c r="G43" s="15">
+      <c r="G43" s="20">
         <v>310</v>
       </c>
-      <c r="H43" s="20">
+      <c r="H43" s="22">
         <v>621369.53021456813</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G44" s="15">
+      <c r="G44" s="20">
         <v>320</v>
       </c>
-      <c r="H44" s="20">
+      <c r="H44" s="22">
         <v>682320.93416212313</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G45" s="15">
+      <c r="G45" s="20">
         <v>330</v>
       </c>
-      <c r="H45" s="20">
+      <c r="H45" s="22">
         <v>735329.86392835062</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G46" s="15">
+      <c r="G46" s="20">
         <v>340</v>
       </c>
-      <c r="H46" s="20">
+      <c r="H46" s="22">
         <v>781443.44106265297</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G47" s="15">
+      <c r="G47" s="20">
         <v>350</v>
       </c>
-      <c r="H47" s="20">
+      <c r="H47" s="22">
         <v>821551.86522268457</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G48" s="15">
+      <c r="G48" s="20">
         <v>360</v>
       </c>
-      <c r="H48" s="20">
+      <c r="H48" s="22">
         <v>856415.12424477958</v>
       </c>
     </row>
     <row r="49" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G49" s="15">
+      <c r="G49" s="20">
         <v>370</v>
       </c>
-      <c r="H49" s="20">
+      <c r="H49" s="22">
         <v>886684.61116254725</v>
       </c>
     </row>
     <row r="50" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G50" s="15">
+      <c r="G50" s="20">
         <v>380</v>
       </c>
-      <c r="H50" s="20">
+      <c r="H50" s="22">
         <v>912920.72098907013</v>
       </c>
     </row>
     <row r="51" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G51" s="15">
+      <c r="G51" s="20">
         <v>390</v>
       </c>
-      <c r="H51" s="20">
+      <c r="H51" s="22">
         <v>935607.253438466</v>
       </c>
     </row>
     <row r="52" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G52" s="15">
+      <c r="G52" s="20">
         <v>400</v>
       </c>
-      <c r="H52" s="20">
+      <c r="H52" s="22">
         <v>955163.26238462282</v>
       </c>
     </row>
     <row r="53" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G53" s="15">
+      <c r="G53" s="20">
         <v>410</v>
       </c>
-      <c r="H53" s="20">
+      <c r="H53" s="22">
         <v>971952.85243747453</v>
       </c>
     </row>
     <row r="54" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G54" s="15">
+      <c r="G54" s="20">
         <v>420</v>
       </c>
-      <c r="H54" s="20">
+      <c r="H54" s="22">
         <v>986293.31587235699</v>
       </c>
     </row>
     <row r="55" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G55" s="15">
+      <c r="G55" s="20">
         <v>430</v>
       </c>
-      <c r="H55" s="20">
+      <c r="H55" s="22">
         <v>998461.92082203622</v>
       </c>
     </row>
     <row r="56" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G56" s="15">
+      <c r="G56" s="20">
         <v>440</v>
       </c>
-      <c r="H56" s="20">
+      <c r="H56" s="22">
         <v>1008701.5979665397</v>
       </c>
     </row>
     <row r="57" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G57" s="15">
+      <c r="G57" s="20">
         <v>450</v>
       </c>
-      <c r="H57" s="20">
+      <c r="H57" s="22">
         <v>1017225.7233983984</v>
       </c>
     </row>
     <row r="58" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G58" s="15">
+      <c r="G58" s="20">
         <v>460</v>
       </c>
-      <c r="H58" s="20">
+      <c r="H58" s="22">
         <v>1024222.1565401531</v>
       </c>
     </row>
     <row r="59" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G59" s="15">
+      <c r="G59" s="20">
         <v>470</v>
       </c>
-      <c r="H59" s="20">
+      <c r="H59" s="22">
         <v>1029856.6614397548</v>
       </c>
     </row>
     <row r="60" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G60" s="15">
+      <c r="G60" s="20">
         <v>480</v>
       </c>
-      <c r="H60" s="20">
+      <c r="H60" s="22">
         <v>1034275.8155834542</v>
       </c>
     </row>
     <row r="61" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G61" s="15">
+      <c r="G61" s="20">
         <v>490</v>
       </c>
-      <c r="H61" s="20">
+      <c r="H61" s="22">
         <v>1037609.4911199291</v>
       </c>
     </row>
     <row r="62" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G62" s="15">
+      <c r="G62" s="20">
         <v>500</v>
       </c>
-      <c r="H62" s="20">
+      <c r="H62" s="22">
         <v>1039972.9779989794</v>
       </c>
     </row>
     <row r="63" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G63" s="15">
+      <c r="G63" s="20">
         <v>510</v>
       </c>
-      <c r="H63" s="20">
+      <c r="H63" s="22">
         <v>1041468.8061629091</v>
       </c>
     </row>
     <row r="64" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G64" s="15">
+      <c r="G64" s="20">
         <v>520</v>
       </c>
-      <c r="H64" s="20">
+      <c r="H64" s="22">
         <v>1042188.3139489595</v>
       </c>
     </row>
     <row r="65" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G65" s="15">
+      <c r="G65" s="20">
         <v>530</v>
       </c>
-      <c r="H65" s="20">
+      <c r="H65" s="22">
         <v>1042213.0017719698</v>
       </c>
     </row>
     <row r="66" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G66" s="15">
+      <c r="G66" s="20">
         <v>540</v>
       </c>
-      <c r="H66" s="20">
+      <c r="H66" s="22">
         <v>1041615.7035724644</v>
       </c>
     </row>
     <row r="67" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G67" s="15">
+      <c r="G67" s="20">
         <v>550</v>
       </c>
-      <c r="H67" s="20">
+      <c r="H67" s="22">
         <v>1040461.6031350964</v>
       </c>
     </row>
     <row r="68" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G68" s="15">
+      <c r="G68" s="20">
         <v>560</v>
       </c>
-      <c r="H68" s="20">
+      <c r="H68" s="22">
         <v>1038809.1179690239</v>
       </c>
     </row>
     <row r="69" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G69" s="15">
+      <c r="G69" s="20">
         <v>570</v>
       </c>
-      <c r="H69" s="20">
+      <c r="H69" s="22">
         <v>1036710.669808225</v>
       </c>
     </row>
     <row r="70" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G70" s="15">
+      <c r="G70" s="20">
         <v>580</v>
       </c>
-      <c r="H70" s="20">
+      <c r="H70" s="22">
         <v>1034213.3577876764</v>
       </c>
     </row>
     <row r="71" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G71" s="15">
+      <c r="G71" s="20">
         <v>590</v>
       </c>
-      <c r="H71" s="20">
+      <c r="H71" s="22">
         <v>1031359.5478624469</v>
       </c>
     </row>
     <row r="72" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G72" s="15">
+      <c r="G72" s="20">
         <v>600</v>
       </c>
-      <c r="H72" s="20">
+      <c r="H72" s="22">
         <v>1028187.3899667513</v>
       </c>
     </row>
     <row r="73" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G73" s="15">
+      <c r="G73" s="20">
         <v>610</v>
       </c>
-      <c r="H73" s="15">
+      <c r="H73" s="20">
         <v>1024731.2726827315</v>
       </c>
     </row>
     <row r="74" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G74" s="15">
+      <c r="G74" s="20">
         <v>620</v>
       </c>
-      <c r="H74" s="15">
+      <c r="H74" s="20">
         <v>1021022.2237432048</v>
       </c>
     </row>
     <row r="75" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G75" s="15">
+      <c r="G75" s="20">
         <v>630</v>
       </c>
-      <c r="H75" s="15">
+      <c r="H75" s="20">
         <v>1017088.2634793159</v>
       </c>
     </row>
     <row r="76" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G76" s="15">
+      <c r="G76" s="20">
         <v>640</v>
       </c>
-      <c r="H76" s="15">
+      <c r="H76" s="20">
         <v>1012954.7173026291</v>
       </c>
       <c r="J76" t="s">
@@ -4877,10 +4346,10 @@
       </c>
     </row>
     <row r="77" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G77" s="15">
+      <c r="G77" s="20">
         <v>650</v>
       </c>
-      <c r="H77" s="15">
+      <c r="H77" s="20">
         <v>1008644.4924491229</v>
       </c>
       <c r="J77" t="s">
@@ -4891,10 +4360,10 @@
       </c>
     </row>
     <row r="78" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G78" s="15">
+      <c r="G78" s="20">
         <v>660</v>
       </c>
-      <c r="H78" s="15">
+      <c r="H78" s="20">
         <v>1004178.3234829371</v>
       </c>
       <c r="J78" t="s">
@@ -4902,1711 +4371,1713 @@
       </c>
     </row>
     <row r="79" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G79" s="15">
+      <c r="G79" s="20">
         <v>670</v>
       </c>
-      <c r="H79" s="15">
+      <c r="H79" s="20">
         <v>999574.99043870345</v>
       </c>
     </row>
     <row r="80" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G80" s="15">
+      <c r="G80" s="20">
         <v>680</v>
       </c>
-      <c r="H80" s="15">
+      <c r="H80" s="20">
         <v>994851.51295467373</v>
       </c>
     </row>
     <row r="81" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G81" s="15">
+      <c r="G81" s="20">
         <v>690</v>
       </c>
-      <c r="H81" s="15">
+      <c r="H81" s="20">
         <v>990023.32329994719</v>
       </c>
     </row>
     <row r="82" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G82" s="15">
+      <c r="G82" s="20">
         <v>700</v>
       </c>
-      <c r="H82" s="15">
+      <c r="H82" s="20">
         <v>985104.42081539321</v>
       </c>
     </row>
     <row r="83" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G83" s="15">
+      <c r="G83" s="20">
         <v>710</v>
       </c>
-      <c r="H83" s="15">
+      <c r="H83" s="20">
         <v>980107.50995916908</v>
       </c>
     </row>
     <row r="84" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G84" s="15">
+      <c r="G84" s="20">
         <v>720</v>
       </c>
-      <c r="H84" s="15">
+      <c r="H84" s="20">
         <v>975044.1238656675</v>
       </c>
     </row>
     <row r="85" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G85" s="15">
+      <c r="G85" s="20">
         <v>730</v>
       </c>
-      <c r="H85" s="15">
+      <c r="H85" s="20">
         <v>969924.73508398188</v>
       </c>
     </row>
     <row r="86" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G86" s="15">
+      <c r="G86" s="20">
         <v>740</v>
       </c>
-      <c r="H86" s="15">
+      <c r="H86" s="20">
         <v>964758.8549528002</v>
       </c>
     </row>
     <row r="87" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G87" s="15">
+      <c r="G87" s="20">
         <v>750</v>
       </c>
-      <c r="H87" s="15">
+      <c r="H87" s="20">
         <v>959555.12288789009</v>
       </c>
     </row>
     <row r="88" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G88" s="15">
+      <c r="G88" s="20">
         <v>760</v>
       </c>
-      <c r="H88" s="15">
+      <c r="H88" s="20">
         <v>954321.38670201262</v>
       </c>
     </row>
     <row r="89" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G89" s="15">
+      <c r="G89" s="20">
         <v>770</v>
       </c>
-      <c r="H89" s="15">
+      <c r="H89" s="20">
         <v>949064.7749414182</v>
       </c>
     </row>
     <row r="90" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G90" s="15">
+      <c r="G90" s="20">
         <v>780</v>
       </c>
-      <c r="H90" s="15">
+      <c r="H90" s="20">
         <v>943791.76210536808</v>
       </c>
     </row>
     <row r="91" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G91" s="15">
+      <c r="G91" s="20">
         <v>790</v>
       </c>
-      <c r="H91" s="15">
+      <c r="H91" s="20">
         <v>938508.22751260083</v>
       </c>
     </row>
     <row r="92" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G92" s="15">
+      <c r="G92" s="20">
         <v>800</v>
       </c>
-      <c r="H92" s="15">
+      <c r="H92" s="20">
         <v>933219.50848926988</v>
       </c>
     </row>
     <row r="93" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G93" s="15">
+      <c r="G93" s="20">
         <v>900</v>
       </c>
-      <c r="H93" s="15">
+      <c r="H93" s="20">
         <v>933219.50848926988</v>
       </c>
     </row>
     <row r="94" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G94" s="15">
+      <c r="G94" s="20">
         <v>1000</v>
       </c>
-      <c r="H94" s="15">
+      <c r="H94" s="20">
         <v>933219.50848926988</v>
       </c>
     </row>
     <row r="97" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="H97" s="21" t="s">
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="I97" s="21"/>
-      <c r="J97" s="21"/>
-      <c r="K97" s="21"/>
-      <c r="L97" s="21"/>
-      <c r="M97" s="21"/>
-      <c r="N97" s="21"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
     </row>
     <row r="98" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F98" s="23" t="s">
+      <c r="F98" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G98" s="22">
+      <c r="G98" s="19">
         <f>B43</f>
         <v>955163.26238462282</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="1">
         <v>250</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="1">
         <v>300</v>
       </c>
-      <c r="J98">
+      <c r="J98" s="1">
         <v>350</v>
       </c>
-      <c r="K98">
+      <c r="K98" s="1">
         <v>400</v>
       </c>
-      <c r="L98">
+      <c r="L98" s="1">
         <v>450</v>
       </c>
-      <c r="M98">
+      <c r="M98" s="1">
         <v>500</v>
       </c>
-      <c r="N98">
+      <c r="N98" s="1">
         <v>550</v>
       </c>
     </row>
     <row r="99" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F99" s="23"/>
-      <c r="G99" s="15">
+      <c r="F99" s="18"/>
+      <c r="G99" s="20">
         <v>260</v>
       </c>
-      <c r="H99" s="15">
-        <f t="dataTable" ref="H99:N155" dt2D="1" dtr="1" r1="B36" r2="B37" ca="1"/>
+      <c r="H99" s="20">
+        <f t="dataTable" ref="H99:N155" dt2D="1" dtr="1" r1="B36" r2="B37"/>
         <v>144859.72842847556</v>
       </c>
-      <c r="I99" s="15">
+      <c r="I99" s="20">
         <v>-579438.91371390224</v>
       </c>
-      <c r="J99" s="15">
+      <c r="J99" s="20">
         <v>-1303737.5558562791</v>
       </c>
-      <c r="K99" s="15">
+      <c r="K99" s="20">
         <v>-2028036.1979986569</v>
       </c>
-      <c r="L99" s="15">
+      <c r="L99" s="20">
         <v>-2752334.8401410338</v>
       </c>
-      <c r="M99" s="15">
+      <c r="M99" s="20">
         <v>-3476633.4822834115</v>
       </c>
-      <c r="N99" s="15">
+      <c r="N99" s="20">
         <v>-4200932.1244257884</v>
       </c>
     </row>
     <row r="100" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F100" s="23"/>
-      <c r="G100" s="15">
+      <c r="F100" s="18"/>
+      <c r="G100" s="20">
         <v>270</v>
       </c>
-      <c r="H100" s="15">
+      <c r="H100" s="20">
         <v>269590.60184817808</v>
       </c>
-      <c r="I100" s="15">
+      <c r="I100" s="20">
         <v>-404385.90277226688</v>
       </c>
-      <c r="J100" s="15">
+      <c r="J100" s="20">
         <v>-1078362.4073927123</v>
       </c>
-      <c r="K100" s="15">
+      <c r="K100" s="20">
         <v>-1752338.9120131573</v>
       </c>
-      <c r="L100" s="15">
+      <c r="L100" s="20">
         <v>-2426315.4166336022</v>
       </c>
-      <c r="M100" s="15">
+      <c r="M100" s="20">
         <v>-3100291.9212540481</v>
       </c>
-      <c r="N100" s="15">
+      <c r="N100" s="20">
         <v>-3774268.4258744931</v>
       </c>
     </row>
     <row r="101" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F101" s="23"/>
-      <c r="G101" s="15">
+      <c r="F101" s="18"/>
+      <c r="G101" s="20">
         <v>280</v>
       </c>
-      <c r="H101" s="15">
+      <c r="H101" s="20">
         <v>377277.18719872413</v>
       </c>
-      <c r="I101" s="15">
+      <c r="I101" s="20">
         <v>-251518.12479914958</v>
       </c>
-      <c r="J101" s="15">
+      <c r="J101" s="20">
         <v>-880313.43679702282</v>
       </c>
-      <c r="K101" s="15">
+      <c r="K101" s="20">
         <v>-1509108.7487948965</v>
       </c>
-      <c r="L101" s="15">
+      <c r="L101" s="20">
         <v>-2137904.0607927702</v>
       </c>
-      <c r="M101" s="15">
+      <c r="M101" s="20">
         <v>-2766699.3727906439</v>
       </c>
-      <c r="N101" s="15">
+      <c r="N101" s="20">
         <v>-3395494.6847885177</v>
       </c>
     </row>
     <row r="102" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F102" s="23"/>
-      <c r="G102" s="15">
+      <c r="F102" s="18"/>
+      <c r="G102" s="20">
         <v>290</v>
       </c>
-      <c r="H102" s="15">
+      <c r="H102" s="20">
         <v>470458.61526328744</v>
       </c>
-      <c r="I102" s="15">
+      <c r="I102" s="20">
         <v>-117614.65381582174</v>
       </c>
-      <c r="J102" s="15">
+      <c r="J102" s="20">
         <v>-705687.9228949314</v>
       </c>
-      <c r="K102" s="15">
+      <c r="K102" s="20">
         <v>-1293761.1919740411</v>
       </c>
-      <c r="L102" s="15">
+      <c r="L102" s="20">
         <v>-1881834.4610531498</v>
       </c>
-      <c r="M102" s="15">
+      <c r="M102" s="20">
         <v>-2469907.7301322594</v>
       </c>
-      <c r="N102" s="15">
+      <c r="N102" s="20">
         <v>-3057980.9992113691</v>
       </c>
     </row>
     <row r="103" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F103" s="23"/>
-      <c r="G103" s="15">
+      <c r="F103" s="18"/>
+      <c r="G103" s="20">
         <v>300</v>
       </c>
-      <c r="H103" s="15">
+      <c r="H103" s="20">
         <v>551238.40185229108</v>
       </c>
-      <c r="I103" s="15">
+      <c r="I103" s="20">
         <v>0</v>
       </c>
-      <c r="J103" s="15">
+      <c r="J103" s="20">
         <v>-551238.40185229108</v>
       </c>
-      <c r="K103" s="15">
+      <c r="K103" s="20">
         <v>-1102476.8037045817</v>
       </c>
-      <c r="L103" s="15">
+      <c r="L103" s="20">
         <v>-1653715.2055568728</v>
       </c>
-      <c r="M103" s="15">
+      <c r="M103" s="20">
         <v>-2204953.6074091638</v>
       </c>
-      <c r="N103" s="15">
+      <c r="N103" s="20">
         <v>-2756192.0092614549</v>
       </c>
     </row>
     <row r="104" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F104" s="23"/>
-      <c r="G104" s="15">
+      <c r="F104" s="18"/>
+      <c r="G104" s="20">
         <v>310</v>
       </c>
-      <c r="H104" s="15">
+      <c r="H104" s="20">
         <v>621369.53021456813</v>
       </c>
-      <c r="I104" s="15">
+      <c r="I104" s="20">
         <v>103561.58836909477</v>
       </c>
-      <c r="J104" s="15">
+      <c r="J104" s="20">
         <v>-414246.3534763786</v>
       </c>
-      <c r="K104" s="15">
+      <c r="K104" s="20">
         <v>-932054.2953218515</v>
       </c>
-      <c r="L104" s="15">
+      <c r="L104" s="20">
         <v>-1449862.2371673249</v>
       </c>
-      <c r="M104" s="15">
+      <c r="M104" s="20">
         <v>-1967670.1790127978</v>
       </c>
-      <c r="N104" s="15">
+      <c r="N104" s="20">
         <v>-2485478.1208582716</v>
       </c>
     </row>
     <row r="105" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F105" s="23"/>
-      <c r="G105" s="15">
+      <c r="F105" s="18"/>
+      <c r="G105" s="20">
         <v>320</v>
       </c>
-      <c r="H105" s="15">
+      <c r="H105" s="20">
         <v>682320.93416212313</v>
       </c>
-      <c r="I105" s="15">
+      <c r="I105" s="20">
         <v>194948.83833203511</v>
       </c>
-      <c r="J105" s="15">
+      <c r="J105" s="20">
         <v>-292423.2574980529</v>
       </c>
-      <c r="K105" s="15">
+      <c r="K105" s="20">
         <v>-779795.35332814092</v>
       </c>
-      <c r="L105" s="15">
+      <c r="L105" s="20">
         <v>-1267167.4491582289</v>
       </c>
-      <c r="M105" s="15">
+      <c r="M105" s="20">
         <v>-1754539.5449883174</v>
       </c>
-      <c r="N105" s="15">
+      <c r="N105" s="20">
         <v>-2241911.640818405</v>
       </c>
     </row>
     <row r="106" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F106" s="23"/>
-      <c r="G106" s="15">
+      <c r="F106" s="18"/>
+      <c r="G106" s="20">
         <v>330</v>
       </c>
-      <c r="H106" s="15">
+      <c r="H106" s="20">
         <v>735329.86392835062</v>
       </c>
-      <c r="I106" s="15">
+      <c r="I106" s="20">
         <v>275748.69897313137</v>
       </c>
-      <c r="J106" s="15">
+      <c r="J106" s="20">
         <v>-183832.46598208742</v>
       </c>
-      <c r="K106" s="15">
+      <c r="K106" s="20">
         <v>-643413.63093730668</v>
       </c>
-      <c r="L106" s="15">
+      <c r="L106" s="20">
         <v>-1102994.7958925259</v>
       </c>
-      <c r="M106" s="15">
+      <c r="M106" s="20">
         <v>-1562575.9608477447</v>
       </c>
-      <c r="N106" s="15">
+      <c r="N106" s="20">
         <v>-2022157.125802964</v>
       </c>
     </row>
     <row r="107" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F107" s="23"/>
-      <c r="G107" s="15">
+      <c r="F107" s="18"/>
+      <c r="G107" s="20">
         <v>340</v>
       </c>
-      <c r="H107" s="15">
+      <c r="H107" s="20">
         <v>781443.44106265297</v>
       </c>
-      <c r="I107" s="15">
+      <c r="I107" s="20">
         <v>347308.19602784561</v>
       </c>
-      <c r="J107" s="15">
+      <c r="J107" s="20">
         <v>-86827.049006961286</v>
       </c>
-      <c r="K107" s="15">
+      <c r="K107" s="20">
         <v>-520962.29404176865</v>
       </c>
-      <c r="L107" s="15">
+      <c r="L107" s="20">
         <v>-955097.53907657554</v>
       </c>
-      <c r="M107" s="15">
+      <c r="M107" s="20">
         <v>-1389232.7841113824</v>
       </c>
-      <c r="N107" s="15">
+      <c r="N107" s="20">
         <v>-1823368.0291461898</v>
       </c>
     </row>
     <row r="108" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F108" s="23"/>
-      <c r="G108" s="15">
+      <c r="F108" s="18"/>
+      <c r="G108" s="20">
         <v>350</v>
       </c>
-      <c r="H108" s="15">
+      <c r="H108" s="20">
         <v>821551.86522268457</v>
       </c>
-      <c r="I108" s="15">
+      <c r="I108" s="20">
         <v>410775.93261134205</v>
       </c>
-      <c r="J108" s="15">
+      <c r="J108" s="20">
         <v>0</v>
       </c>
-      <c r="K108" s="15">
+      <c r="K108" s="20">
         <v>-410775.93261134205</v>
       </c>
-      <c r="L108" s="15">
+      <c r="L108" s="20">
         <v>-821551.86522268457</v>
       </c>
-      <c r="M108" s="15">
+      <c r="M108" s="20">
         <v>-1232327.7978340266</v>
       </c>
-      <c r="N108" s="15">
+      <c r="N108" s="20">
         <v>-1643103.7304453691</v>
       </c>
     </row>
     <row r="109" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F109" s="23"/>
-      <c r="G109" s="15">
+      <c r="F109" s="18"/>
+      <c r="G109" s="20">
         <v>360</v>
       </c>
-      <c r="H109" s="15">
+      <c r="H109" s="20">
         <v>856415.12424477958</v>
       </c>
-      <c r="I109" s="15">
+      <c r="I109" s="20">
         <v>467135.52231533453</v>
       </c>
-      <c r="J109" s="15">
+      <c r="J109" s="20">
         <v>77855.920385889243</v>
       </c>
-      <c r="K109" s="15">
+      <c r="K109" s="20">
         <v>-311423.68154355604</v>
       </c>
-      <c r="L109" s="15">
+      <c r="L109" s="20">
         <v>-700703.28347300133</v>
       </c>
-      <c r="M109" s="15">
+      <c r="M109" s="20">
         <v>-1089982.8854024466</v>
       </c>
-      <c r="N109" s="15">
+      <c r="N109" s="20">
         <v>-1479262.4873318919</v>
       </c>
     </row>
     <row r="110" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F110" s="23"/>
-      <c r="G110" s="15">
+      <c r="F110" s="18"/>
+      <c r="G110" s="20">
         <v>370</v>
       </c>
-      <c r="H110" s="15">
+      <c r="H110" s="20">
         <v>886684.61116254725</v>
       </c>
-      <c r="I110" s="15">
+      <c r="I110" s="20">
         <v>517232.68984481925</v>
       </c>
-      <c r="J110" s="15">
+      <c r="J110" s="20">
         <v>147780.76852709148</v>
       </c>
-      <c r="K110" s="15">
+      <c r="K110" s="20">
         <v>-221671.15279063676</v>
       </c>
-      <c r="L110" s="15">
+      <c r="L110" s="20">
         <v>-591123.07410836453</v>
       </c>
-      <c r="M110" s="15">
+      <c r="M110" s="20">
         <v>-960574.9954260923</v>
       </c>
-      <c r="N110" s="15">
+      <c r="N110" s="20">
         <v>-1330026.9167438205</v>
       </c>
     </row>
     <row r="111" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F111" s="23"/>
-      <c r="G111" s="15">
+      <c r="F111" s="18"/>
+      <c r="G111" s="20">
         <v>380</v>
       </c>
-      <c r="H111" s="15">
+      <c r="H111" s="20">
         <v>912920.72098907013</v>
       </c>
-      <c r="I111" s="15">
+      <c r="I111" s="20">
         <v>561797.36676250491</v>
       </c>
-      <c r="J111" s="15">
+      <c r="J111" s="20">
         <v>210674.01253593946</v>
       </c>
-      <c r="K111" s="15">
+      <c r="K111" s="20">
         <v>-140449.341690626</v>
       </c>
-      <c r="L111" s="15">
+      <c r="L111" s="20">
         <v>-491572.69591719145</v>
       </c>
-      <c r="M111" s="15">
+      <c r="M111" s="20">
         <v>-842696.05014375644</v>
       </c>
-      <c r="N111" s="15">
+      <c r="N111" s="20">
         <v>-1193819.4043703219</v>
       </c>
     </row>
     <row r="112" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F112" s="23"/>
-      <c r="G112" s="15">
+      <c r="F112" s="18"/>
+      <c r="G112" s="20">
         <v>390</v>
       </c>
-      <c r="H112" s="15">
+      <c r="H112" s="20">
         <v>935607.253438466</v>
       </c>
-      <c r="I112" s="15">
+      <c r="I112" s="20">
         <v>601461.80578187108</v>
       </c>
-      <c r="J112" s="15">
+      <c r="J112" s="20">
         <v>267316.35812527593</v>
       </c>
-      <c r="K112" s="15">
+      <c r="K112" s="20">
         <v>-66829.08953131875</v>
       </c>
-      <c r="L112" s="15">
+      <c r="L112" s="20">
         <v>-400974.5371879139</v>
       </c>
-      <c r="M112" s="15">
+      <c r="M112" s="20">
         <v>-735119.98484450858</v>
       </c>
-      <c r="N112" s="15">
+      <c r="N112" s="20">
         <v>-1069265.4325011037</v>
       </c>
     </row>
     <row r="113" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F113" s="23"/>
-      <c r="G113" s="15">
+      <c r="F113" s="18"/>
+      <c r="G113" s="20">
         <v>400</v>
       </c>
-      <c r="H113" s="15">
+      <c r="H113" s="20">
         <v>955163.26238462282</v>
       </c>
-      <c r="I113" s="15">
+      <c r="I113" s="20">
         <v>636775.50825641514</v>
       </c>
-      <c r="J113" s="15">
+      <c r="J113" s="20">
         <v>318387.75412820745</v>
       </c>
-      <c r="K113" s="15">
+      <c r="K113" s="20">
         <v>0</v>
       </c>
-      <c r="L113" s="15">
+      <c r="L113" s="20">
         <v>-318387.75412820745</v>
       </c>
-      <c r="M113" s="15">
+      <c r="M113" s="20">
         <v>-636775.50825641491</v>
       </c>
-      <c r="N113" s="15">
+      <c r="N113" s="20">
         <v>-955163.26238462236</v>
       </c>
     </row>
     <row r="114" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F114" s="23"/>
-      <c r="G114" s="15">
+      <c r="F114" s="18"/>
+      <c r="G114" s="20">
         <v>410</v>
       </c>
-      <c r="H114" s="15">
+      <c r="H114" s="20">
         <v>971952.85243747453</v>
       </c>
-      <c r="I114" s="15">
+      <c r="I114" s="20">
         <v>668217.58605076349</v>
       </c>
-      <c r="J114" s="15">
+      <c r="J114" s="20">
         <v>364482.31966405269</v>
       </c>
-      <c r="K114" s="15">
+      <c r="K114" s="20">
         <v>60747.053277342115</v>
       </c>
-      <c r="L114" s="15">
+      <c r="L114" s="20">
         <v>-242988.21310936892</v>
       </c>
-      <c r="M114" s="15">
+      <c r="M114" s="20">
         <v>-546723.4794960795</v>
       </c>
-      <c r="N114" s="15">
+      <c r="N114" s="20">
         <v>-850458.74588279054</v>
       </c>
     </row>
     <row r="115" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F115" s="23"/>
-      <c r="G115" s="15">
+      <c r="F115" s="18"/>
+      <c r="G115" s="20">
         <v>420</v>
       </c>
-      <c r="H115" s="15">
+      <c r="H115" s="20">
         <v>986293.31587235699</v>
       </c>
-      <c r="I115" s="15">
+      <c r="I115" s="20">
         <v>696207.04649813427</v>
       </c>
-      <c r="J115" s="15">
+      <c r="J115" s="20">
         <v>406120.77712391177</v>
       </c>
-      <c r="K115" s="15">
+      <c r="K115" s="20">
         <v>116034.50774968928</v>
       </c>
-      <c r="L115" s="15">
+      <c r="L115" s="20">
         <v>-174051.76162453368</v>
       </c>
-      <c r="M115" s="15">
+      <c r="M115" s="20">
         <v>-464138.03099875618</v>
       </c>
-      <c r="N115" s="15">
+      <c r="N115" s="20">
         <v>-754224.30037297867</v>
       </c>
     </row>
     <row r="116" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F116" s="23"/>
-      <c r="G116" s="15">
+      <c r="F116" s="18"/>
+      <c r="G116" s="20">
         <v>430</v>
       </c>
-      <c r="H116" s="15">
+      <c r="H116" s="20">
         <v>998461.92082203622</v>
       </c>
-      <c r="I116" s="15">
+      <c r="I116" s="20">
         <v>721111.38726035948</v>
       </c>
-      <c r="J116" s="15">
+      <c r="J116" s="20">
         <v>443760.85369868297</v>
       </c>
-      <c r="K116" s="15">
+      <c r="K116" s="20">
         <v>166410.32013700623</v>
       </c>
-      <c r="L116" s="15">
+      <c r="L116" s="20">
         <v>-110940.21342467051</v>
       </c>
-      <c r="M116" s="15">
+      <c r="M116" s="20">
         <v>-388290.74698634725</v>
       </c>
-      <c r="N116" s="15">
+      <c r="N116" s="20">
         <v>-665641.28054802399</v>
       </c>
     </row>
     <row r="117" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F117" s="23"/>
-      <c r="G117" s="15">
+      <c r="F117" s="18"/>
+      <c r="G117" s="20">
         <v>440</v>
       </c>
-      <c r="H117" s="15">
+      <c r="H117" s="20">
         <v>1008701.5979665397</v>
       </c>
-      <c r="I117" s="15">
+      <c r="I117" s="20">
         <v>743253.80902797659</v>
       </c>
-      <c r="J117" s="15">
+      <c r="J117" s="20">
         <v>477806.02008941351</v>
       </c>
-      <c r="K117" s="15">
+      <c r="K117" s="20">
         <v>212358.23115085065</v>
       </c>
-      <c r="L117" s="15">
+      <c r="L117" s="20">
         <v>-53089.557787712663</v>
       </c>
-      <c r="M117" s="15">
+      <c r="M117" s="20">
         <v>-318537.34672627551</v>
       </c>
-      <c r="N117" s="15">
+      <c r="N117" s="20">
         <v>-583985.13566483883</v>
       </c>
     </row>
     <row r="118" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F118" s="23"/>
-      <c r="G118" s="15">
+      <c r="F118" s="18"/>
+      <c r="G118" s="20">
         <v>450</v>
       </c>
-      <c r="H118" s="15">
+      <c r="H118" s="20">
         <v>1017225.7233983984</v>
       </c>
-      <c r="I118" s="15">
+      <c r="I118" s="20">
         <v>762919.29254879872</v>
       </c>
-      <c r="J118" s="15">
+      <c r="J118" s="20">
         <v>508612.86169919907</v>
       </c>
-      <c r="K118" s="15">
+      <c r="K118" s="20">
         <v>254306.43084959942</v>
       </c>
-      <c r="L118" s="15">
+      <c r="L118" s="20">
         <v>0</v>
       </c>
-      <c r="M118" s="15">
+      <c r="M118" s="20">
         <v>-254306.43084959965</v>
       </c>
-      <c r="N118" s="15">
+      <c r="N118" s="20">
         <v>-508612.8616991993</v>
       </c>
     </row>
     <row r="119" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F119" s="23"/>
-      <c r="G119" s="15">
+      <c r="F119" s="18"/>
+      <c r="G119" s="20">
         <v>460</v>
       </c>
-      <c r="H119" s="15">
+      <c r="H119" s="20">
         <v>1024222.1565401531</v>
       </c>
-      <c r="I119" s="15">
+      <c r="I119" s="20">
         <v>780359.73831630708</v>
       </c>
-      <c r="J119" s="15">
+      <c r="J119" s="20">
         <v>536497.3200924613</v>
       </c>
-      <c r="K119" s="15">
+      <c r="K119" s="20">
         <v>292634.9018686153</v>
       </c>
-      <c r="L119" s="15">
+      <c r="L119" s="20">
         <v>48772.483644769527</v>
       </c>
-      <c r="M119" s="15">
+      <c r="M119" s="20">
         <v>-195089.93457907671</v>
       </c>
-      <c r="N119" s="15">
+      <c r="N119" s="20">
         <v>-438952.35280292248</v>
       </c>
     </row>
     <row r="120" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F120" s="23"/>
-      <c r="G120" s="15">
+      <c r="F120" s="18"/>
+      <c r="G120" s="20">
         <v>470</v>
       </c>
-      <c r="H120" s="15">
+      <c r="H120" s="20">
         <v>1029856.6614397548</v>
       </c>
-      <c r="I120" s="15">
+      <c r="I120" s="20">
         <v>795798.32929435605</v>
       </c>
-      <c r="J120" s="15">
+      <c r="J120" s="20">
         <v>561739.9971489571</v>
       </c>
-      <c r="K120" s="15">
+      <c r="K120" s="20">
         <v>327681.66500355839</v>
       </c>
-      <c r="L120" s="15">
+      <c r="L120" s="20">
         <v>93623.332858159672</v>
       </c>
-      <c r="M120" s="15">
+      <c r="M120" s="20">
         <v>-140434.99928723928</v>
       </c>
-      <c r="N120" s="15">
+      <c r="N120" s="20">
         <v>-374493.33143263776</v>
       </c>
     </row>
     <row r="121" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F121" s="23"/>
-      <c r="G121" s="15">
+      <c r="F121" s="18"/>
+      <c r="G121" s="20">
         <v>480</v>
       </c>
-      <c r="H121" s="15">
+      <c r="H121" s="20">
         <v>1034275.8155834542</v>
       </c>
-      <c r="I121" s="15">
+      <c r="I121" s="20">
         <v>809433.24697835557</v>
       </c>
-      <c r="J121" s="15">
+      <c r="J121" s="20">
         <v>584590.67837325693</v>
       </c>
-      <c r="K121" s="15">
+      <c r="K121" s="20">
         <v>359748.10976815806</v>
       </c>
-      <c r="L121" s="15">
+      <c r="L121" s="20">
         <v>134905.54116305942</v>
       </c>
-      <c r="M121" s="15">
+      <c r="M121" s="20">
         <v>-89937.027442039456</v>
       </c>
-      <c r="N121" s="15">
+      <c r="N121" s="20">
         <v>-314779.59604713786</v>
       </c>
     </row>
     <row r="122" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F122" s="23"/>
-      <c r="G122" s="15">
+      <c r="F122" s="18"/>
+      <c r="G122" s="20">
         <v>490</v>
       </c>
-      <c r="H122" s="15">
+      <c r="H122" s="20">
         <v>1037609.4911199291</v>
       </c>
-      <c r="I122" s="15">
+      <c r="I122" s="20">
         <v>821440.84713661065</v>
       </c>
-      <c r="J122" s="15">
+      <c r="J122" s="20">
         <v>605272.20315329218</v>
       </c>
-      <c r="K122" s="15">
+      <c r="K122" s="20">
         <v>389103.55916997371</v>
       </c>
-      <c r="L122" s="15">
+      <c r="L122" s="20">
         <v>172934.91518665501</v>
       </c>
-      <c r="M122" s="15">
+      <c r="M122" s="20">
         <v>-43233.728796663694</v>
       </c>
-      <c r="N122" s="15">
+      <c r="N122" s="20">
         <v>-259402.37277998216</v>
       </c>
     </row>
     <row r="123" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F123" s="23"/>
-      <c r="G123" s="15">
+      <c r="F123" s="18"/>
+      <c r="G123" s="20">
         <v>500</v>
       </c>
-      <c r="H123" s="15">
+      <c r="H123" s="20">
         <v>1039972.9779989794</v>
       </c>
-      <c r="I123" s="15">
+      <c r="I123" s="20">
         <v>831978.3823991837</v>
       </c>
-      <c r="J123" s="15">
+      <c r="J123" s="20">
         <v>623983.78679938777</v>
       </c>
-      <c r="K123" s="15">
+      <c r="K123" s="20">
         <v>415989.19119959185</v>
       </c>
-      <c r="L123" s="15">
+      <c r="L123" s="20">
         <v>207994.59559979592</v>
       </c>
-      <c r="M123" s="15">
+      <c r="M123" s="20">
         <v>0</v>
       </c>
-      <c r="N123" s="15">
+      <c r="N123" s="20">
         <v>-207994.59559979569</v>
       </c>
     </row>
     <row r="124" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F124" s="23"/>
-      <c r="G124" s="15">
+      <c r="F124" s="18"/>
+      <c r="G124" s="20">
         <v>510</v>
       </c>
-      <c r="H124" s="15">
+      <c r="H124" s="20">
         <v>1041468.8061629091</v>
       </c>
-      <c r="I124" s="15">
+      <c r="I124" s="20">
         <v>841186.34343927284</v>
       </c>
-      <c r="J124" s="15">
+      <c r="J124" s="20">
         <v>640903.8807156363</v>
       </c>
-      <c r="K124" s="15">
+      <c r="K124" s="20">
         <v>440621.417992</v>
       </c>
-      <c r="L124" s="15">
+      <c r="L124" s="20">
         <v>240338.9552683637</v>
       </c>
-      <c r="M124" s="15">
+      <c r="M124" s="20">
         <v>40056.4925447274</v>
       </c>
-      <c r="N124" s="15">
+      <c r="N124" s="20">
         <v>-160225.97017890913</v>
       </c>
     </row>
     <row r="125" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F125" s="23"/>
-      <c r="G125" s="15">
+      <c r="F125" s="18"/>
+      <c r="G125" s="20">
         <v>520</v>
       </c>
-      <c r="H125" s="15">
+      <c r="H125" s="20">
         <v>1042188.3139489595</v>
       </c>
-      <c r="I125" s="15">
+      <c r="I125" s="20">
         <v>849190.47803248558</v>
       </c>
-      <c r="J125" s="15">
+      <c r="J125" s="20">
         <v>656192.64211601159</v>
       </c>
-      <c r="K125" s="15">
+      <c r="K125" s="20">
         <v>463194.80619953759</v>
       </c>
-      <c r="L125" s="15">
+      <c r="L125" s="20">
         <v>270196.97028306359</v>
       </c>
-      <c r="M125" s="15">
+      <c r="M125" s="20">
         <v>77199.134366589598</v>
       </c>
-      <c r="N125" s="15">
+      <c r="N125" s="20">
         <v>-115798.70154988416</v>
       </c>
     </row>
     <row r="126" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F126" s="23"/>
-      <c r="G126" s="15">
+      <c r="F126" s="18"/>
+      <c r="G126" s="20">
         <v>530</v>
       </c>
-      <c r="H126" s="15">
+      <c r="H126" s="20">
         <v>1042213.0017719698</v>
       </c>
-      <c r="I126" s="15">
+      <c r="I126" s="20">
         <v>856103.53716983227</v>
       </c>
-      <c r="J126" s="15">
+      <c r="J126" s="20">
         <v>669994.07256769482</v>
       </c>
-      <c r="K126" s="15">
+      <c r="K126" s="20">
         <v>483884.60796555737</v>
       </c>
-      <c r="L126" s="15">
+      <c r="L126" s="20">
         <v>297775.14336341992</v>
       </c>
-      <c r="M126" s="15">
+      <c r="M126" s="20">
         <v>111665.67876128247</v>
       </c>
-      <c r="N126" s="15">
+      <c r="N126" s="20">
         <v>-74443.78584085498</v>
       </c>
     </row>
     <row r="127" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F127" s="23"/>
-      <c r="G127" s="15">
+      <c r="F127" s="18"/>
+      <c r="G127" s="20">
         <v>540</v>
       </c>
-      <c r="H127" s="15">
+      <c r="H127" s="20">
         <v>1041615.7035724644</v>
       </c>
-      <c r="I127" s="15">
+      <c r="I127" s="20">
         <v>862026.78916341881</v>
       </c>
-      <c r="J127" s="15">
+      <c r="J127" s="20">
         <v>682437.87475437322</v>
       </c>
-      <c r="K127" s="15">
+      <c r="K127" s="20">
         <v>502848.96034532762</v>
       </c>
-      <c r="L127" s="15">
+      <c r="L127" s="20">
         <v>323260.04593628203</v>
       </c>
-      <c r="M127" s="15">
+      <c r="M127" s="20">
         <v>143671.13152723666</v>
       </c>
-      <c r="N127" s="15">
+      <c r="N127" s="20">
         <v>-35917.782881808933</v>
       </c>
     </row>
     <row r="128" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F128" s="23"/>
-      <c r="G128" s="15">
+      <c r="F128" s="18"/>
+      <c r="G128" s="20">
         <v>550</v>
       </c>
-      <c r="H128" s="15">
+      <c r="H128" s="20">
         <v>1040461.6031350964</v>
       </c>
-      <c r="I128" s="15">
+      <c r="I128" s="20">
         <v>867051.33594591368</v>
       </c>
-      <c r="J128" s="15">
+      <c r="J128" s="20">
         <v>693641.06875673099</v>
       </c>
-      <c r="K128" s="15">
+      <c r="K128" s="20">
         <v>520230.80156754819</v>
       </c>
-      <c r="L128" s="15">
+      <c r="L128" s="20">
         <v>346820.53437836538</v>
       </c>
-      <c r="M128" s="15">
+      <c r="M128" s="20">
         <v>173410.26718918281</v>
       </c>
-      <c r="N128" s="15">
+      <c r="N128" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F129" s="23"/>
-      <c r="G129" s="15">
+      <c r="F129" s="18"/>
+      <c r="G129" s="20">
         <v>560</v>
       </c>
-      <c r="H129" s="15">
+      <c r="H129" s="20">
         <v>1038809.1179690239</v>
       </c>
-      <c r="I129" s="15">
+      <c r="I129" s="20">
         <v>871259.26023208455</v>
       </c>
-      <c r="J129" s="15">
+      <c r="J129" s="20">
         <v>703709.4024951451</v>
       </c>
-      <c r="K129" s="15">
+      <c r="K129" s="20">
         <v>536159.544758206</v>
       </c>
-      <c r="L129" s="15">
+      <c r="L129" s="20">
         <v>368609.68702126667</v>
       </c>
-      <c r="M129" s="15">
+      <c r="M129" s="20">
         <v>201059.82928432734</v>
       </c>
-      <c r="N129" s="15">
+      <c r="N129" s="20">
         <v>33509.971547388006</v>
       </c>
     </row>
     <row r="130" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F130" s="23"/>
-      <c r="G130" s="15">
+      <c r="F130" s="18"/>
+      <c r="G130" s="20">
         <v>570</v>
       </c>
-      <c r="H130" s="15">
+      <c r="H130" s="20">
         <v>1036710.669808225</v>
       </c>
-      <c r="I130" s="15">
+      <c r="I130" s="20">
         <v>874724.6276506898</v>
       </c>
-      <c r="J130" s="15">
+      <c r="J130" s="20">
         <v>712738.58549315459</v>
       </c>
-      <c r="K130" s="15">
+      <c r="K130" s="20">
         <v>550752.54333561938</v>
       </c>
-      <c r="L130" s="15">
+      <c r="L130" s="20">
         <v>388766.50117808441</v>
       </c>
-      <c r="M130" s="15">
+      <c r="M130" s="20">
         <v>226780.4590205492</v>
       </c>
-      <c r="N130" s="15">
+      <c r="N130" s="20">
         <v>64794.41686301399</v>
       </c>
     </row>
     <row r="131" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F131" s="23"/>
-      <c r="G131" s="15">
+      <c r="F131" s="18"/>
+      <c r="G131" s="20">
         <v>580</v>
       </c>
-      <c r="H131" s="15">
+      <c r="H131" s="20">
         <v>1034213.3577876764</v>
       </c>
-      <c r="I131" s="15">
+      <c r="I131" s="20">
         <v>877514.36418348295</v>
       </c>
-      <c r="J131" s="15">
+      <c r="J131" s="20">
         <v>720815.37057928951</v>
       </c>
-      <c r="K131" s="15">
+      <c r="K131" s="20">
         <v>564116.37697509606</v>
       </c>
-      <c r="L131" s="15">
+      <c r="L131" s="20">
         <v>407417.38337090285</v>
       </c>
-      <c r="M131" s="15">
+      <c r="M131" s="20">
         <v>250718.38976670941</v>
       </c>
-      <c r="N131" s="15">
+      <c r="N131" s="20">
         <v>94019.396162515972</v>
       </c>
     </row>
     <row r="132" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F132" s="23"/>
-      <c r="G132" s="15">
+      <c r="F132" s="18"/>
+      <c r="G132" s="20">
         <v>590</v>
       </c>
-      <c r="H132" s="15">
+      <c r="H132" s="20">
         <v>1031359.5478624469</v>
       </c>
-      <c r="I132" s="15">
+      <c r="I132" s="20">
         <v>879689.02611796942</v>
       </c>
-      <c r="J132" s="15">
+      <c r="J132" s="20">
         <v>728018.50437349197</v>
       </c>
-      <c r="K132" s="15">
+      <c r="K132" s="20">
         <v>576347.98262901441</v>
       </c>
-      <c r="L132" s="15">
+      <c r="L132" s="20">
         <v>424677.46088453708</v>
       </c>
-      <c r="M132" s="15">
+      <c r="M132" s="20">
         <v>273006.93914005952</v>
       </c>
-      <c r="N132" s="15">
+      <c r="N132" s="20">
         <v>121336.41739558196</v>
       </c>
     </row>
     <row r="133" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F133" s="23"/>
-      <c r="G133" s="15">
+      <c r="F133" s="18"/>
+      <c r="G133" s="20">
         <v>600</v>
       </c>
-      <c r="H133" s="15">
+      <c r="H133" s="20">
         <v>1028187.3899667513</v>
       </c>
-      <c r="I133" s="15">
+      <c r="I133" s="20">
         <v>881303.47711435833</v>
       </c>
-      <c r="J133" s="15">
+      <c r="J133" s="20">
         <v>734419.56426196522</v>
       </c>
-      <c r="K133" s="15">
+      <c r="K133" s="20">
         <v>587535.65140957222</v>
       </c>
-      <c r="L133" s="15">
+      <c r="L133" s="20">
         <v>440651.73855717899</v>
       </c>
-      <c r="M133" s="15">
+      <c r="M133" s="20">
         <v>293767.825704786</v>
       </c>
-      <c r="N133" s="15">
+      <c r="N133" s="20">
         <v>146883.912852393</v>
       </c>
     </row>
     <row r="134" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F134" s="23"/>
-      <c r="G134" s="15">
+      <c r="F134" s="18"/>
+      <c r="G134" s="20">
         <v>610</v>
       </c>
-      <c r="H134" s="15">
+      <c r="H134" s="20">
         <v>1024731.2726827315</v>
       </c>
-      <c r="I134" s="15">
+      <c r="I134" s="20">
         <v>882407.48481012986</v>
       </c>
-      <c r="J134" s="15">
+      <c r="J134" s="20">
         <v>740083.69693752832</v>
       </c>
-      <c r="K134" s="15">
+      <c r="K134" s="20">
         <v>597759.90906492667</v>
       </c>
-      <c r="L134" s="15">
+      <c r="L134" s="20">
         <v>455436.12119232514</v>
       </c>
-      <c r="M134" s="15">
+      <c r="M134" s="20">
         <v>313112.33331972361</v>
       </c>
-      <c r="N134" s="15">
+      <c r="N134" s="20">
         <v>170788.54544712184</v>
       </c>
     </row>
     <row r="135" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F135" s="23"/>
-      <c r="G135" s="15">
+      <c r="F135" s="18"/>
+      <c r="G135" s="20">
         <v>620</v>
       </c>
-      <c r="H135" s="15">
+      <c r="H135" s="20">
         <v>1021022.2237432048</v>
       </c>
-      <c r="I135" s="15">
+      <c r="I135" s="20">
         <v>883046.24756169063</v>
       </c>
-      <c r="J135" s="15">
+      <c r="J135" s="20">
         <v>745070.27138017653</v>
       </c>
-      <c r="K135" s="15">
+      <c r="K135" s="20">
         <v>607094.29519866221</v>
       </c>
-      <c r="L135" s="15">
+      <c r="L135" s="20">
         <v>469118.31901714811</v>
       </c>
-      <c r="M135" s="15">
+      <c r="M135" s="20">
         <v>331142.34283563402</v>
       </c>
-      <c r="N135" s="15">
+      <c r="N135" s="20">
         <v>193166.36665411969</v>
       </c>
     </row>
     <row r="136" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F136" s="23"/>
-      <c r="G136" s="15">
+      <c r="F136" s="18"/>
+      <c r="G136" s="20">
         <v>630</v>
       </c>
-      <c r="H136" s="15">
+      <c r="H136" s="20">
         <v>1017088.2634793159</v>
       </c>
-      <c r="I136" s="15">
+      <c r="I136" s="20">
         <v>883260.86038993229</v>
       </c>
-      <c r="J136" s="15">
+      <c r="J136" s="20">
         <v>749433.45730054856</v>
       </c>
-      <c r="K136" s="15">
+      <c r="K136" s="20">
         <v>615606.05421116482</v>
       </c>
-      <c r="L136" s="15">
+      <c r="L136" s="20">
         <v>481778.65112178121</v>
       </c>
-      <c r="M136" s="15">
+      <c r="M136" s="20">
         <v>347951.24803239759</v>
       </c>
-      <c r="N136" s="15">
+      <c r="N136" s="20">
         <v>214123.84494301397</v>
       </c>
     </row>
     <row r="137" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F137" s="23"/>
-      <c r="G137" s="15">
+      <c r="F137" s="18"/>
+      <c r="G137" s="20">
         <v>640</v>
       </c>
-      <c r="H137" s="15">
+      <c r="H137" s="20">
         <v>1012954.7173026291</v>
       </c>
-      <c r="I137" s="15">
+      <c r="I137" s="20">
         <v>883088.7279048562</v>
       </c>
-      <c r="J137" s="15">
+      <c r="J137" s="20">
         <v>753222.73850708327</v>
       </c>
-      <c r="K137" s="15">
+      <c r="K137" s="20">
         <v>623356.74910931021</v>
       </c>
-      <c r="L137" s="15">
+      <c r="L137" s="20">
         <v>493490.75971153728</v>
       </c>
-      <c r="M137" s="15">
+      <c r="M137" s="20">
         <v>363624.77031376422</v>
       </c>
-      <c r="N137" s="15">
+      <c r="N137" s="20">
         <v>233758.7809159914</v>
       </c>
     </row>
     <row r="138" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F138" s="23"/>
-      <c r="G138" s="15">
+      <c r="F138" s="18"/>
+      <c r="G138" s="20">
         <v>650</v>
       </c>
-      <c r="H138" s="15">
+      <c r="H138" s="20">
         <v>1008644.4924491229</v>
       </c>
-      <c r="I138" s="15">
+      <c r="I138" s="20">
         <v>882563.93089298252</v>
       </c>
-      <c r="J138" s="15">
+      <c r="J138" s="20">
         <v>756483.36933684221</v>
       </c>
-      <c r="K138" s="15">
+      <c r="K138" s="20">
         <v>630402.80778070178</v>
       </c>
-      <c r="L138" s="15">
+      <c r="L138" s="20">
         <v>504322.24622456147</v>
       </c>
-      <c r="M138" s="15">
+      <c r="M138" s="20">
         <v>378241.68466842105</v>
       </c>
-      <c r="N138" s="15">
+      <c r="N138" s="20">
         <v>252161.12311228062</v>
       </c>
     </row>
     <row r="139" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F139" s="23"/>
-      <c r="G139" s="15">
+      <c r="F139" s="18"/>
+      <c r="G139" s="20">
         <v>660</v>
       </c>
-      <c r="H139" s="15">
+      <c r="H139" s="20">
         <v>1004178.3234829371</v>
       </c>
-      <c r="I139" s="15">
+      <c r="I139" s="20">
         <v>881717.55232648132</v>
       </c>
-      <c r="J139" s="15">
+      <c r="J139" s="20">
         <v>759256.78117002558</v>
       </c>
-      <c r="K139" s="15">
+      <c r="K139" s="20">
         <v>636796.01001356984</v>
       </c>
-      <c r="L139" s="15">
+      <c r="L139" s="20">
         <v>514335.23885711422</v>
       </c>
-      <c r="M139" s="15">
+      <c r="M139" s="20">
         <v>391874.46770065837</v>
       </c>
-      <c r="N139" s="15">
+      <c r="N139" s="20">
         <v>269413.69654420274</v>
       </c>
     </row>
     <row r="140" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F140" s="23"/>
-      <c r="G140" s="15">
+      <c r="F140" s="18"/>
+      <c r="G140" s="20">
         <v>670</v>
       </c>
-      <c r="H140" s="15">
+      <c r="H140" s="20">
         <v>999574.99043870345</v>
       </c>
-      <c r="I140" s="15">
+      <c r="I140" s="20">
         <v>880577.96776742931</v>
       </c>
-      <c r="J140" s="15">
+      <c r="J140" s="20">
         <v>761580.94509615505</v>
       </c>
-      <c r="K140" s="15">
+      <c r="K140" s="20">
         <v>642583.92242488079</v>
       </c>
-      <c r="L140" s="15">
+      <c r="L140" s="20">
         <v>523586.89975360665</v>
       </c>
-      <c r="M140" s="15">
+      <c r="M140" s="20">
         <v>404589.87708233227</v>
       </c>
-      <c r="N140" s="15">
+      <c r="N140" s="20">
         <v>285592.85441105813</v>
       </c>
     </row>
     <row r="141" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F141" s="23"/>
-      <c r="G141" s="15">
+      <c r="F141" s="18"/>
+      <c r="G141" s="20">
         <v>680</v>
       </c>
-      <c r="H141" s="15">
+      <c r="H141" s="20">
         <v>994851.51295467373</v>
       </c>
-      <c r="I141" s="15">
+      <c r="I141" s="20">
         <v>879171.10447157209</v>
       </c>
-      <c r="J141" s="15">
+      <c r="J141" s="20">
         <v>763490.69598847057</v>
       </c>
-      <c r="K141" s="15">
+      <c r="K141" s="20">
         <v>647810.28750536893</v>
       </c>
-      <c r="L141" s="15">
+      <c r="L141" s="20">
         <v>532129.8790222673</v>
       </c>
-      <c r="M141" s="15">
+      <c r="M141" s="20">
         <v>416449.47053916566</v>
       </c>
-      <c r="N141" s="15">
+      <c r="N141" s="20">
         <v>300769.06205606414</v>
       </c>
     </row>
     <row r="142" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F142" s="23"/>
-      <c r="G142" s="15">
+      <c r="F142" s="18"/>
+      <c r="G142" s="20">
         <v>690</v>
       </c>
-      <c r="H142" s="15">
+      <c r="H142" s="20">
         <v>990023.32329994719</v>
       </c>
-      <c r="I142" s="15">
+      <c r="I142" s="20">
         <v>877520.67292495316</v>
       </c>
-      <c r="J142" s="15">
+      <c r="J142" s="20">
         <v>765018.02254995925</v>
       </c>
-      <c r="K142" s="15">
+      <c r="K142" s="20">
         <v>652515.37217496522</v>
       </c>
-      <c r="L142" s="15">
+      <c r="L142" s="20">
         <v>540012.72179997119</v>
       </c>
-      <c r="M142" s="15">
+      <c r="M142" s="20">
         <v>427510.07142497716</v>
       </c>
-      <c r="N142" s="15">
+      <c r="N142" s="20">
         <v>315007.42104998324</v>
       </c>
     </row>
     <row r="143" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F143" s="23"/>
-      <c r="G143" s="15">
+      <c r="F143" s="18"/>
+      <c r="G143" s="20">
         <v>700</v>
       </c>
-      <c r="H143" s="15">
+      <c r="H143" s="20">
         <v>985104.42081539321</v>
       </c>
-      <c r="I143" s="15">
+      <c r="I143" s="20">
         <v>875648.37405812729</v>
       </c>
-      <c r="J143" s="15">
+      <c r="J143" s="20">
         <v>766192.32730086136</v>
       </c>
-      <c r="K143" s="15">
+      <c r="K143" s="20">
         <v>656736.28054359555</v>
       </c>
-      <c r="L143" s="15">
+      <c r="L143" s="20">
         <v>547280.23378632963</v>
       </c>
-      <c r="M143" s="15">
+      <c r="M143" s="20">
         <v>437824.1870290637</v>
       </c>
-      <c r="N143" s="15">
+      <c r="N143" s="20">
         <v>328368.14027179778</v>
       </c>
     </row>
     <row r="144" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F144" s="23"/>
-      <c r="G144" s="15">
+      <c r="F144" s="18"/>
+      <c r="G144" s="20">
         <v>710</v>
       </c>
-      <c r="H144" s="15">
+      <c r="H144" s="20">
         <v>980107.50995916908</v>
       </c>
-      <c r="I144" s="15">
+      <c r="I144" s="20">
         <v>873574.08496360714</v>
       </c>
-      <c r="J144" s="15">
+      <c r="J144" s="20">
         <v>767040.65996804531</v>
       </c>
-      <c r="K144" s="15">
+      <c r="K144" s="20">
         <v>660507.23497248348</v>
       </c>
-      <c r="L144" s="15">
+      <c r="L144" s="20">
         <v>553973.80997692165</v>
       </c>
-      <c r="M144" s="15">
+      <c r="M144" s="20">
         <v>447440.38498135982</v>
       </c>
-      <c r="N144" s="15">
+      <c r="N144" s="20">
         <v>340906.95998579799</v>
       </c>
     </row>
     <row r="145" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F145" s="23"/>
-      <c r="G145" s="15">
+      <c r="F145" s="18"/>
+      <c r="G145" s="20">
         <v>720</v>
       </c>
-      <c r="H145" s="15">
+      <c r="H145" s="20">
         <v>975044.1238656675</v>
       </c>
-      <c r="I145" s="15">
+      <c r="I145" s="20">
         <v>871316.02558208595</v>
       </c>
-      <c r="J145" s="15">
+      <c r="J145" s="20">
         <v>767587.92729850428</v>
       </c>
-      <c r="K145" s="15">
+      <c r="K145" s="20">
         <v>663859.82901492261</v>
       </c>
-      <c r="L145" s="15">
+      <c r="L145" s="20">
         <v>560131.73073134094</v>
       </c>
-      <c r="M145" s="15">
+      <c r="M145" s="20">
         <v>456403.63244775927</v>
       </c>
-      <c r="N145" s="15">
+      <c r="N145" s="20">
         <v>352675.53416417772</v>
       </c>
     </row>
     <row r="146" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F146" s="23"/>
-      <c r="G146" s="15">
+      <c r="F146" s="18"/>
+      <c r="G146" s="20">
         <v>730</v>
       </c>
-      <c r="H146" s="15">
+      <c r="H146" s="20">
         <v>969924.73508398188</v>
       </c>
-      <c r="I146" s="15">
+      <c r="I146" s="20">
         <v>868890.90851273388</v>
       </c>
-      <c r="J146" s="15">
+      <c r="J146" s="20">
         <v>767857.08194148575</v>
       </c>
-      <c r="K146" s="15">
+      <c r="K146" s="20">
         <v>666823.25537023752</v>
       </c>
-      <c r="L146" s="15">
+      <c r="L146" s="20">
         <v>565789.42879898939</v>
       </c>
-      <c r="M146" s="15">
+      <c r="M146" s="20">
         <v>464755.60222774127</v>
       </c>
-      <c r="N146" s="15">
+      <c r="N146" s="20">
         <v>363721.77565649315</v>
       </c>
     </row>
     <row r="147" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F147" s="23"/>
-      <c r="G147" s="15">
+      <c r="F147" s="18"/>
+      <c r="G147" s="20">
         <v>740</v>
       </c>
-      <c r="H147" s="15">
+      <c r="H147" s="20">
         <v>964758.8549528002</v>
       </c>
-      <c r="I147" s="15">
+      <c r="I147" s="20">
         <v>866314.07383516757</v>
       </c>
-      <c r="J147" s="15">
+      <c r="J147" s="20">
         <v>767869.29271753482</v>
       </c>
-      <c r="K147" s="15">
+      <c r="K147" s="20">
         <v>669424.51159990218</v>
       </c>
-      <c r="L147" s="15">
+      <c r="L147" s="20">
         <v>570979.73048226954</v>
       </c>
-      <c r="M147" s="15">
+      <c r="M147" s="20">
         <v>472534.94936463679</v>
       </c>
-      <c r="N147" s="15">
+      <c r="N147" s="20">
         <v>374090.16824700404</v>
       </c>
     </row>
     <row r="148" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F148" s="23"/>
-      <c r="G148" s="15">
+      <c r="F148" s="18"/>
+      <c r="G148" s="20">
         <v>750</v>
       </c>
-      <c r="H148" s="15">
+      <c r="H148" s="20">
         <v>959555.12288789009</v>
       </c>
-      <c r="I148" s="15">
+      <c r="I148" s="20">
         <v>863599.61059910117</v>
       </c>
-      <c r="J148" s="15">
+      <c r="J148" s="20">
         <v>767644.09831031214</v>
       </c>
-      <c r="K148" s="15">
+      <c r="K148" s="20">
         <v>671688.58602152311</v>
       </c>
-      <c r="L148" s="15">
+      <c r="L148" s="20">
         <v>575733.07373273408</v>
       </c>
-      <c r="M148" s="15">
+      <c r="M148" s="20">
         <v>479777.56144394504</v>
       </c>
-      <c r="N148" s="15">
+      <c r="N148" s="20">
         <v>383822.04915515613</v>
       </c>
     </row>
     <row r="149" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F149" s="23"/>
-      <c r="G149" s="15">
+      <c r="F149" s="18"/>
+      <c r="G149" s="20">
         <v>760</v>
       </c>
-      <c r="H149" s="15">
+      <c r="H149" s="20">
         <v>954321.38670201262</v>
       </c>
-      <c r="I149" s="15">
+      <c r="I149" s="20">
         <v>860760.4664371094</v>
       </c>
-      <c r="J149" s="15">
+      <c r="J149" s="20">
         <v>767199.54617220617</v>
       </c>
-      <c r="K149" s="15">
+      <c r="K149" s="20">
         <v>673638.62590730307</v>
       </c>
-      <c r="L149" s="15">
+      <c r="L149" s="20">
         <v>580077.70564239984</v>
       </c>
-      <c r="M149" s="15">
+      <c r="M149" s="20">
         <v>486516.78537749662</v>
       </c>
-      <c r="N149" s="15">
+      <c r="N149" s="20">
         <v>392955.8651125934</v>
       </c>
     </row>
     <row r="150" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F150" s="23"/>
-      <c r="G150" s="15">
+      <c r="F150" s="18"/>
+      <c r="G150" s="20">
         <v>770</v>
       </c>
-      <c r="H150" s="15">
+      <c r="H150" s="20">
         <v>949064.7749414182</v>
       </c>
-      <c r="I150" s="15">
+      <c r="I150" s="20">
         <v>857808.54658166645</v>
       </c>
-      <c r="J150" s="15">
+      <c r="J150" s="20">
         <v>766552.3182219147</v>
       </c>
-      <c r="K150" s="15">
+      <c r="K150" s="20">
         <v>675296.08986216295</v>
       </c>
-      <c r="L150" s="15">
+      <c r="L150" s="20">
         <v>584039.86150241119</v>
       </c>
-      <c r="M150" s="15">
+      <c r="M150" s="20">
         <v>492783.63314265944</v>
       </c>
-      <c r="N150" s="15">
+      <c r="N150" s="20">
         <v>401527.40478290769</v>
       </c>
     </row>
     <row r="151" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F151" s="23"/>
-      <c r="G151" s="15">
+      <c r="F151" s="18"/>
+      <c r="G151" s="20">
         <v>780</v>
       </c>
-      <c r="H151" s="15">
+      <c r="H151" s="20">
         <v>943791.76210536808</v>
       </c>
-      <c r="I151" s="15">
+      <c r="I151" s="20">
         <v>854754.80341618229</v>
       </c>
-      <c r="J151" s="15">
+      <c r="J151" s="20">
         <v>765717.84472699661</v>
       </c>
-      <c r="K151" s="15">
+      <c r="K151" s="20">
         <v>676680.88603781094</v>
       </c>
-      <c r="L151" s="15">
+      <c r="L151" s="20">
         <v>587643.92734862538</v>
       </c>
-      <c r="M151" s="15">
+      <c r="M151" s="20">
         <v>498606.96865943971</v>
       </c>
-      <c r="N151" s="15">
+      <c r="N151" s="20">
         <v>409570.00997025403</v>
       </c>
     </row>
     <row r="152" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F152" s="23"/>
-      <c r="G152" s="15">
+      <c r="F152" s="18"/>
+      <c r="G152" s="20">
         <v>790</v>
       </c>
-      <c r="H152" s="15">
+      <c r="H152" s="20">
         <v>938508.22751260083</v>
       </c>
-      <c r="I152" s="15">
+      <c r="I152" s="20">
         <v>851609.31755773036</v>
       </c>
-      <c r="J152" s="15">
+      <c r="J152" s="20">
         <v>764710.40760285989</v>
       </c>
-      <c r="K152" s="15">
+      <c r="K152" s="20">
         <v>677811.49764798942</v>
       </c>
-      <c r="L152" s="15">
+      <c r="L152" s="20">
         <v>590912.58769311896</v>
       </c>
-      <c r="M152" s="15">
+      <c r="M152" s="20">
         <v>504013.67773824849</v>
       </c>
-      <c r="N152" s="15">
+      <c r="N152" s="20">
         <v>417114.76778337813</v>
       </c>
     </row>
     <row r="153" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F153" s="23"/>
-      <c r="G153" s="15">
+      <c r="F153" s="18"/>
+      <c r="G153" s="20">
         <v>800</v>
       </c>
-      <c r="H153" s="15">
+      <c r="H153" s="20">
         <v>933219.50848926988</v>
       </c>
-      <c r="I153" s="15">
+      <c r="I153" s="20">
         <v>848381.37135388167</v>
       </c>
-      <c r="J153" s="15">
+      <c r="J153" s="20">
         <v>763543.23421849345</v>
       </c>
-      <c r="K153" s="15">
+      <c r="K153" s="20">
         <v>678705.09708310536</v>
       </c>
-      <c r="L153" s="15">
+      <c r="L153" s="20">
         <v>593866.95994771714</v>
       </c>
-      <c r="M153" s="15">
+      <c r="M153" s="20">
         <v>509028.82281232905</v>
       </c>
-      <c r="N153" s="15">
+      <c r="N153" s="20">
         <v>424190.68567694083</v>
       </c>
     </row>
     <row r="154" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F154" s="23"/>
-      <c r="G154" s="15">
+      <c r="F154" s="18"/>
+      <c r="G154" s="20">
         <v>900</v>
       </c>
-      <c r="H154" s="15">
+      <c r="H154" s="20">
         <v>880917.95766693447</v>
       </c>
-      <c r="I154" s="15">
+      <c r="I154" s="20">
         <v>813155.03784640098</v>
       </c>
-      <c r="J154" s="15">
+      <c r="J154" s="20">
         <v>745392.11802586762</v>
       </c>
-      <c r="K154" s="15">
+      <c r="K154" s="20">
         <v>677629.19820533413</v>
       </c>
-      <c r="L154" s="15">
+      <c r="L154" s="20">
         <v>609866.27838480077</v>
       </c>
-      <c r="M154" s="15">
+      <c r="M154" s="20">
         <v>542103.35856426728</v>
       </c>
-      <c r="N154" s="15">
+      <c r="N154" s="20">
         <v>474340.43874373392</v>
       </c>
     </row>
     <row r="155" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F155" s="23"/>
-      <c r="G155" s="15">
+      <c r="F155" s="18"/>
+      <c r="G155" s="20">
         <v>1000</v>
       </c>
-      <c r="H155" s="15">
+      <c r="H155" s="20">
         <v>831338.85314930137</v>
       </c>
-      <c r="I155" s="15">
+      <c r="I155" s="20">
         <v>775916.262939348</v>
       </c>
-      <c r="J155" s="15">
+      <c r="J155" s="20">
         <v>720493.67272939463</v>
       </c>
-      <c r="K155" s="15">
+      <c r="K155" s="20">
         <v>665071.08251944114</v>
       </c>
-      <c r="L155" s="15">
+      <c r="L155" s="20">
         <v>609648.49230948766</v>
       </c>
-      <c r="M155" s="15">
+      <c r="M155" s="20">
         <v>554225.90209953429</v>
       </c>
-      <c r="N155" s="15">
+      <c r="N155" s="20">
         <v>498803.3118895808</v>
       </c>
     </row>
@@ -6619,51 +6090,51 @@
     <mergeCell ref="F98:F155"/>
   </mergeCells>
   <conditionalFormatting sqref="H38:H94">
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>MAX($H$38:$H$94)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"MAX"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H99:H155">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>MAX($H$99:$H$155)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>" $5,93,536.37 "</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>MAX($H$99:$H$155)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I99:I155">
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>MAX($I$99:$I$155)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J99:J155">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>MAX($J$99:$J$155)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K99:K155">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>MAX($K$99:$K$155)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L99:L155">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>MAX($L$99:$L$155)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M99:M155">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>MAX($M$99:$M$155)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N99:N155">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>MAX($N$99:$N$155)</formula>
     </cfRule>
   </conditionalFormatting>
